--- a/biology/Zoologie/Eupatorus_gracilicornis/Eupatorus_gracilicornis.xlsx
+++ b/biology/Zoologie/Eupatorus_gracilicornis/Eupatorus_gracilicornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhinocéros à cinq cornes
-Eupatorus gracilicornis, le rhinocéros à cinq cornes[1], est une espèce d'insectes coléoptères de la famille des Scarabaeidae, sous-famille des Dynastinae, tribu des Dynastini et du genre Eupatorus[2].
+Eupatorus gracilicornis, le rhinocéros à cinq cornes, est une espèce d'insectes coléoptères de la famille des Scarabaeidae, sous-famille des Dynastinae, tribu des Dynastini et du genre Eupatorus.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par l'entomologiste britannique Gilbert John Arrow en 1908 [3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par l'entomologiste britannique Gilbert John Arrow en 1908 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Male - Vue dorsale
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaste zone géographique: Asie du sud-est, la péninsule Malaise et Bornéo[réf. nécessaire].
 </t>
